--- a/Documentation/ProjectOrganisation/team#_aufgabe#_lernjournal.xlsx
+++ b/Documentation/ProjectOrganisation/team#_aufgabe#_lernjournal.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad0e591deda49bb0/Dokumente/Repos/SwissQR/swiss-qr-code/Documentation/ProjectOrganisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44B57114-9932-4FA5-B81B-909EEB211FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{44B57114-9932-4FA5-B81B-909EEB211FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80C9BC28-4901-40E8-9170-9B9E260BD8B3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lernjournal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Anleitung zum Lernjournal:</t>
   </si>
@@ -71,31 +71,19 @@
     <t>Name des 3. Studierenden: Fabrizio Piacente</t>
   </si>
   <si>
-    <t>Festlegung Projektthema, Grobdefinition</t>
+    <t>Bearbeitung Aufgabe 3</t>
   </si>
   <si>
-    <t>Diverse Punkte Aufgabe 1 in Dokument nachgeführt</t>
+    <t>Bearbeitung Präsentation</t>
   </si>
   <si>
-    <t>Einrichten GitHub Repo</t>
-  </si>
-  <si>
-    <t>Bearbeitung Aufgabe 2</t>
-  </si>
-  <si>
-    <t>Bearbeitung Aufgabe 2 und Präsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bearbeitung Aufgabe 2 </t>
-  </si>
-  <si>
-    <t>Diverse Punkte Aufgabe 1 in Dokument nachgeführt ()</t>
+    <t>Finalisierung Aufgabe 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
@@ -255,10 +243,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,24 +558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.8984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="90.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="3" customWidth="1"/>
-    <col min="5" max="17" width="10.69921875" style="2" customWidth="1"/>
-    <col min="18" max="257" width="10.69921875" style="4" customWidth="1"/>
-    <col min="258" max="1024" width="10.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="17" width="10.75" style="2" customWidth="1"/>
+    <col min="18" max="257" width="10.75" style="4" customWidth="1"/>
+    <col min="258" max="1024" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +596,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +617,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -648,7 +636,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -667,7 +655,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -688,7 +676,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -707,7 +695,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -726,7 +714,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -749,7 +737,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -768,7 +756,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -795,19 +783,19 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10">
         <f>B11/60</f>
-        <v>0.58333333333333337</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="11">
-        <v>44096</v>
+        <v>44133</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -823,19 +811,19 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10">
         <f>B12/60</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="11">
-        <v>44105</v>
+        <v>44134</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -851,20 +839,14 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9">
-        <v>90</v>
-      </c>
+    <row r="13" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="10">
         <f>B13/60</f>
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="11">
-        <v>44107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -879,20 +861,14 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9">
-        <v>45</v>
-      </c>
+    <row r="14" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="10">
         <f>B14/60</f>
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="11">
-        <v>44109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -907,7 +883,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -926,17 +902,17 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="16">
         <f>SUM(B11:B15)</f>
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C16" s="16">
         <f>SUM(C11:C15)</f>
-        <v>3.8333333333333335</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -953,7 +929,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -972,7 +948,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -991,7 +967,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1010,7 +986,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1009,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1052,7 +1028,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" s="4" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="4" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1079,19 +1055,19 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C23" s="10">
         <f>B23/60</f>
-        <v>0.58333333333333337</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="11">
-        <v>44096</v>
+        <v>44133</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1107,19 +1083,19 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10">
         <f>B24/60</f>
-        <v>1.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="11">
-        <v>44097</v>
+        <v>44134</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1135,20 +1111,14 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9">
-        <v>80</v>
-      </c>
+    <row r="25" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="10">
         <f>B25/60</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D25" s="11">
-        <v>44107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -1163,20 +1133,14 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="9">
-        <v>45</v>
-      </c>
+    <row r="26" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="10">
         <f>B26/60</f>
-        <v>0.75</v>
-      </c>
-      <c r="D26" s="11">
-        <v>44109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -1191,7 +1155,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="1:17" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1210,17 +1174,17 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="16">
         <f>SUM(B23:B27)</f>
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C28" s="16">
         <f>SUM(C23:C27)</f>
-        <v>3.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
@@ -1237,7 +1201,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1256,7 +1220,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1275,7 +1239,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1294,7 +1258,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1281,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1336,7 +1300,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="4" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
@@ -1363,19 +1327,19 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C35" s="10">
         <f>B35/60</f>
-        <v>0.58333333333333337</v>
+        <v>1.5</v>
       </c>
       <c r="D35" s="11">
-        <v>44096</v>
+        <v>44133</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1391,19 +1355,19 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C36" s="10">
         <f>B36/60</f>
-        <v>1.0833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D36" s="11">
-        <v>44102</v>
+        <v>44134</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1419,20 +1383,14 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="9">
-        <v>75</v>
-      </c>
+    <row r="37" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="10">
         <f>B37/60</f>
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="11">
-        <v>44107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -1447,20 +1405,14 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="9">
-        <v>45</v>
-      </c>
+    <row r="38" spans="1:17" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="10">
         <f>B38/60</f>
-        <v>0.75</v>
-      </c>
-      <c r="D38" s="11">
-        <v>44109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -1475,7 +1427,7 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:17" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1494,17 +1446,17 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="16">
         <f>SUM(B35:B39)</f>
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C40" s="16">
         <f>SUM(C35:C39)</f>
-        <v>3.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
@@ -1521,7 +1473,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1540,7 +1492,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1559,7 +1511,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1578,7 +1530,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1597,7 +1549,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1616,7 +1568,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1635,7 +1587,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1654,7 +1606,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1673,7 +1625,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1692,7 +1644,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1711,7 +1663,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1730,7 +1682,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1749,7 +1701,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1768,7 +1720,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1787,7 +1739,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1806,7 +1758,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1825,7 +1777,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1844,7 +1796,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1863,7 +1815,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
